--- a/data/trans_dic/P57_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +640,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 36,93</t>
+          <t>25,65; 37,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,44; 33,58</t>
+          <t>19,17; 34,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,25; 31,01</t>
+          <t>20,71; 31,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 20,44</t>
+          <t>13,37; 20,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,39</t>
+          <t>24,82; 32,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 26,04</t>
+          <t>17,15; 25,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 39,64</t>
+          <t>30,59; 39,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,38; 77,72</t>
+          <t>66,66; 77,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,24; 36,61</t>
+          <t>27,83; 36,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,52; 71,69</t>
+          <t>64,01; 71,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,14</t>
+          <t>30,59; 36,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,16; 73,49</t>
+          <t>66,94; 73,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 35,9</t>
+          <t>25,53; 35,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,42; 53,49</t>
+          <t>42,39; 53,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,46; 33,62</t>
+          <t>24,29; 33,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 43,13</t>
+          <t>34,16; 43,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,35</t>
+          <t>26,03; 32,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 46,89</t>
+          <t>39,74; 47,15</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,5; 45,15</t>
+          <t>35,51; 45,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 48,07</t>
+          <t>32,88; 48,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,66; 39,94</t>
+          <t>29,83; 39,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,89; 41,9</t>
+          <t>19,87; 40,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,23; 41,13</t>
+          <t>34,19; 41,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,88; 41,93</t>
+          <t>25,94; 41,79</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 20,88</t>
+          <t>10,8; 20,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,13; 46,3</t>
+          <t>34,18; 46,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,25</t>
+          <t>7,88; 16,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,43; 40,74</t>
+          <t>31,48; 41,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 17,19</t>
+          <t>10,59; 16,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 41,74</t>
+          <t>34,13; 42,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,26; 57,23</t>
+          <t>45,38; 57,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,72; 55,56</t>
+          <t>44,68; 55,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,16; 51,01</t>
+          <t>39,33; 50,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,08; 56,59</t>
+          <t>46,75; 57,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,04; 52,26</t>
+          <t>43,94; 52,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 54,43</t>
+          <t>47,09; 54,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,57; 33,38</t>
+          <t>25,24; 32,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,95; 49,11</t>
+          <t>40,0; 49,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,65; 29,62</t>
+          <t>22,42; 29,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,11; 40,82</t>
+          <t>12,75; 40,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,2; 30,5</t>
+          <t>24,99; 30,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 42,89</t>
+          <t>19,85; 42,91</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,9; 22,9</t>
+          <t>17,23; 23,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,45; 79,94</t>
+          <t>40,37; 81,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,19</t>
+          <t>13,55; 18,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,08; 36,48</t>
+          <t>29,83; 36,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,04</t>
+          <t>15,96; 19,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,86; 66,71</t>
+          <t>36,76; 66,07</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1280,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,83; 31,95</t>
+          <t>28,9; 32,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>46,14; 62,01</t>
+          <t>46,31; 62,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,87; 28,01</t>
+          <t>24,88; 27,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,93; 41,31</t>
+          <t>30,84; 41,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,24; 29,47</t>
+          <t>27,15; 29,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,27; 49,69</t>
+          <t>40,66; 50,15</t>
         </is>
       </c>
     </row>
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad mayor o igual a 9 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91161</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>79287</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72897</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>48153</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>164058</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>127439</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75110; 109207</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>59714; 106144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59801; 89647</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38714; 60801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>144323; 188647</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103074; 156153</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>174690</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>377911</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>166897</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>346851</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>341587</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>724761</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>152780; 195248</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>345545; 401959</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>145018; 189207</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>327240; 365006</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>312185; 369588</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>689198; 754058</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>96976</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151302</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>96801</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>134552</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>193777</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>285854</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81098; 111988</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>133236; 169307</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81703; 114060</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>118722; 150894</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>170207; 215186</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>263005; 312089</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>148778</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>123748</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>150976</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>283703</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>274724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130310; 167967</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>100462; 148002</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114795; 153179</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>92379; 190609</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>257044; 310614</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>199866; 321970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32603</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71973</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25658</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74388</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>58262</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>146361</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22818; 43960</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>61092; 83253</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17229; 35739</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>65076; 84817</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>45526; 72254</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>131544; 162229</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>134863</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>135460</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>121881</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>133624</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>256744</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>269084</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>119417; 150711</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>120461; 149822</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>107034; 138484</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>120023; 147317</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>235175; 280964</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>247846; 288717</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>191503</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>278005</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>177202</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>254352</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>368705</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>532357</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>164291; 214770</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>249438; 310386</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>152960; 199505</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>108014; 346955</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>333191; 402461</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>291951; 631180</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>155622</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>529459</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>132461</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>238489</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>288083</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>767948</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>134154; 179817</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>374649; 753612</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>111643; 155809</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>213635; 260629</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>255758; 317612</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>604398; 1086292</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1026196</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1747144</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>928723</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1381383</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1954919</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3128528</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>977133; 1087918</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1597551; 2146360</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>877663; 981482</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1122807; 1496713</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1875864; 2028846</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2883072; 3555898</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>